--- a/DFStatsTest.xlsx
+++ b/DFStatsTest.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,7 +348,2377 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1.68131868131868</v>
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>2.3695652173913</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>2.3695652173913</v>
       </c>
     </row>
   </sheetData>

--- a/DFStatsTest.xlsx
+++ b/DFStatsTest.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A475"/>
+  <dimension ref="A1:A473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -353,2372 +353,2362 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.3695652173913</v>
+        <v>2.16483516483516</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.3695652173913</v>
+        <v>2.83333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>2.3695652173913</v>
+        <v>1.71111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2.3695652173913</v>
+        <v>2.15730337078652</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>2.3695652173913</v>
+        <v>2.12359550561798</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2.3695652173913</v>
+        <v>1.64044943820225</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2.3695652173913</v>
+        <v>2.98850574712644</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>2.3695652173913</v>
+        <v>1.51162790697674</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2.3695652173913</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2.3695652173913</v>
+        <v>1.54761904761905</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>2.3695652173913</v>
+        <v>2.04761904761905</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>2.3695652173913</v>
+        <v>0.879518072289157</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>2.3695652173913</v>
+        <v>1.78313253012048</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>2.3695652173913</v>
+        <v>2.46341463414634</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>2.3695652173913</v>
+        <v>2.18292682926829</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>2.3695652173913</v>
+        <v>2.7037037037037</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>2.3695652173913</v>
+        <v>2.03703703703704</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>2.3695652173913</v>
+        <v>2.11111111111111</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>2.3695652173913</v>
+        <v>2.07407407407407</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>2.3695652173913</v>
+        <v>2.575</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>2.3695652173913</v>
+        <v>2.275</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>2.3695652173913</v>
+        <v>2.53846153846154</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>2.3695652173913</v>
+        <v>2.29487179487179</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>2.3695652173913</v>
+        <v>2.43589743589744</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>2.3695652173913</v>
+        <v>2.20779220779221</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>2.3695652173913</v>
+        <v>1.94805194805195</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>2.3695652173913</v>
+        <v>1.48051948051948</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2.3695652173913</v>
+        <v>1.96052631578947</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>2.3695652173913</v>
+        <v>1.86842105263158</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>2.3695652173913</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2.3695652173913</v>
+        <v>2.21333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>2.3695652173913</v>
+        <v>2.22972972972973</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>2.3695652173913</v>
+        <v>1.56756756756757</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>2.3695652173913</v>
+        <v>1.72602739726027</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>2.3695652173913</v>
+        <v>2.15277777777778</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>2.3695652173913</v>
+        <v>2.54929577464789</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>2.3695652173913</v>
+        <v>1.91549295774648</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>2.3695652173913</v>
+        <v>1.54929577464789</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2.3695652173913</v>
+        <v>1.7887323943662</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>2.3695652173913</v>
+        <v>2.28571428571429</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>2.3695652173913</v>
+        <v>1.82857142857143</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>2.3695652173913</v>
+        <v>2.12857142857143</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>2.3695652173913</v>
+        <v>1.56521739130435</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>2.3695652173913</v>
+        <v>1.89855072463768</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>2.3695652173913</v>
+        <v>4.27536231884058</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>2.3695652173913</v>
+        <v>2.6231884057971</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>2.3695652173913</v>
+        <v>2.63768115942029</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>2.3695652173913</v>
+        <v>2.52173913043478</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>2.3695652173913</v>
+        <v>2.14705882352941</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>2.3695652173913</v>
+        <v>1.95588235294118</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>2.3695652173913</v>
+        <v>2.35294117647059</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>2.3695652173913</v>
+        <v>1.60294117647059</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>2.3695652173913</v>
+        <v>1.41791044776119</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>2.3695652173913</v>
+        <v>2.22388059701493</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>2.3695652173913</v>
+        <v>1.92537313432836</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>2.3695652173913</v>
+        <v>1.28358208955224</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>2.3695652173913</v>
+        <v>1.43283582089552</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>2.3695652173913</v>
+        <v>1.35820895522388</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>2.3695652173913</v>
+        <v>1.77272727272727</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>2.3695652173913</v>
+        <v>1.53030303030303</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2.3695652173913</v>
+        <v>2.43939393939394</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>2.3695652173913</v>
+        <v>1.89230769230769</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>2.3695652173913</v>
+        <v>1.90769230769231</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>2.3695652173913</v>
+        <v>1.55384615384615</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>2.3695652173913</v>
+        <v>1.67692307692308</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>2.3695652173913</v>
+        <v>0.969230769230769</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>2.3695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>2.3695652173913</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>2.3695652173913</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>2.3695652173913</v>
+        <v>2.109375</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>2.3695652173913</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>2.3695652173913</v>
+        <v>1.921875</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>2.3695652173913</v>
+        <v>1.20634920634921</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>2.3695652173913</v>
+        <v>1.44444444444444</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>2.3695652173913</v>
+        <v>2.0952380952381</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>2.3695652173913</v>
+        <v>2.20967741935484</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>2.3695652173913</v>
+        <v>2.59016393442623</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>2.3695652173913</v>
+        <v>2.73770491803279</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>2.3695652173913</v>
+        <v>1.73770491803279</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>2.3695652173913</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>2.3695652173913</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>2.3695652173913</v>
+        <v>2.43333333333333</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>2.3695652173913</v>
+        <v>2.06666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>2.3695652173913</v>
+        <v>1.16666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>2.3695652173913</v>
+        <v>2.38983050847458</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>2.3695652173913</v>
+        <v>0.254237288135593</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>2.3695652173913</v>
+        <v>0.203389830508475</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>2.3695652173913</v>
+        <v>1.74576271186441</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>2.3695652173913</v>
+        <v>1.40677966101695</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>2.3695652173913</v>
+        <v>2.1551724137931</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>2.3695652173913</v>
+        <v>1.1551724137931</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2.3695652173913</v>
+        <v>0.327586206896552</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>2.3695652173913</v>
+        <v>3.43103448275862</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>2.3695652173913</v>
+        <v>2.43103448275862</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>2.3695652173913</v>
+        <v>1.47368421052632</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>2.3695652173913</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>2.3695652173913</v>
+        <v>1.78947368421053</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>2.3695652173913</v>
+        <v>1.82456140350877</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>2.3695652173913</v>
+        <v>1.52631578947368</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>2.3695652173913</v>
+        <v>0.684210526315789</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>2.3695652173913</v>
+        <v>-0.0350877192982456</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>2.3695652173913</v>
+        <v>1.85964912280702</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>2.3695652173913</v>
+        <v>1.82456140350877</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>2.3695652173913</v>
+        <v>1.07017543859649</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2.3695652173913</v>
+        <v>1.85714285714286</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>2.3695652173913</v>
+        <v>1.85714285714286</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>2.3695652173913</v>
+        <v>1.42857142857143</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>2.3695652173913</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>2.3695652173913</v>
+        <v>0.0535714285714286</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>2.3695652173913</v>
+        <v>1.35714285714286</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>2.3695652173913</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>2.3695652173913</v>
+        <v>1.57142857142857</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>2.3695652173913</v>
+        <v>1.03571428571429</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>2.3695652173913</v>
+        <v>0.763636363636364</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>2.3695652173913</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>2.3695652173913</v>
+        <v>1.21818181818182</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>2.3695652173913</v>
+        <v>1.36363636363636</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>2.3695652173913</v>
+        <v>0.890909090909091</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>2.3695652173913</v>
+        <v>1.89090909090909</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>2.3695652173913</v>
+        <v>1.94545454545455</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>2.3695652173913</v>
+        <v>0.481481481481482</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>2.3695652173913</v>
+        <v>1.75925925925926</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>2.3695652173913</v>
+        <v>1.57407407407407</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>2.3695652173913</v>
+        <v>2.16666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>2.3695652173913</v>
+        <v>1.74074074074074</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>2.3695652173913</v>
+        <v>0.518518518518518</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>2.3695652173913</v>
+        <v>2.03703703703704</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>2.3695652173913</v>
+        <v>0.259259259259259</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>2.3695652173913</v>
+        <v>1.2962962962963</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>2.3695652173913</v>
+        <v>1.03703703703704</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>2.3695652173913</v>
+        <v>0.648148148148148</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>2.3695652173913</v>
+        <v>1.38888888888889</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>2.3695652173913</v>
+        <v>0.0555555555555556</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>2.3695652173913</v>
+        <v>1.37037037037037</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>2.3695652173913</v>
+        <v>1.31481481481481</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>2.3695652173913</v>
+        <v>1.77358490566038</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>2.3695652173913</v>
+        <v>0.39622641509434</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>2.3695652173913</v>
+        <v>0.39622641509434</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>2.3695652173913</v>
+        <v>0.943396226415094</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>2.3695652173913</v>
+        <v>0.415094339622642</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>2.3695652173913</v>
+        <v>1.22641509433962</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>2.3695652173913</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>2.3695652173913</v>
+        <v>0.0566037735849057</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>2.3695652173913</v>
+        <v>0.924528301886793</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>2.3695652173913</v>
+        <v>1.47169811320755</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>2.3695652173913</v>
+        <v>1.54716981132075</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>2.3695652173913</v>
+        <v>0.0188679245283019</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>2.3695652173913</v>
+        <v>1.18867924528302</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>2.3695652173913</v>
+        <v>1.43396226415094</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>2.3695652173913</v>
+        <v>1.07692307692308</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>2.3695652173913</v>
+        <v>1.15384615384615</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>2.3695652173913</v>
+        <v>1.28846153846154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>2.3695652173913</v>
+        <v>1.13461538461538</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>2.3695652173913</v>
+        <v>0.730769230769231</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>2.3695652173913</v>
+        <v>1.61538461538462</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>2.3695652173913</v>
+        <v>1.30769230769231</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>2.3695652173913</v>
+        <v>0.807692307692308</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>2.3695652173913</v>
+        <v>1.98076923076923</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>2.3695652173913</v>
+        <v>2.82692307692308</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>2.3695652173913</v>
+        <v>1.17307692307692</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>2.3695652173913</v>
+        <v>1.36538461538462</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>2.3695652173913</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>2.3695652173913</v>
+        <v>0.942307692307692</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>2.3695652173913</v>
+        <v>-0.0192307692307692</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>2.3695652173913</v>
+        <v>1.86538461538462</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>2.3695652173913</v>
+        <v>0.549019607843137</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>2.3695652173913</v>
+        <v>1.11764705882353</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>2.3695652173913</v>
+        <v>1.84313725490196</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>2.3695652173913</v>
+        <v>1.13725490196078</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>2.3695652173913</v>
+        <v>0.92156862745098</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>2.3695652173913</v>
+        <v>3.11764705882353</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>2.3695652173913</v>
+        <v>0.529411764705882</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>2.3695652173913</v>
+        <v>2.19607843137255</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>2.3695652173913</v>
+        <v>0.764705882352941</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>2.3695652173913</v>
+        <v>2.58823529411765</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>2.3695652173913</v>
+        <v>2.11764705882353</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>2.3695652173913</v>
+        <v>1.27450980392157</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>2.3695652173913</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>2.3695652173913</v>
+        <v>2.15686274509804</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>2.3695652173913</v>
+        <v>0.313725490196078</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>2.3695652173913</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>2.3695652173913</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>2.3695652173913</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>2.3695652173913</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>2.3695652173913</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>2.3695652173913</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>2.3695652173913</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>2.3695652173913</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>2.3695652173913</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>2.3695652173913</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>2.3695652173913</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2.3695652173913</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2.3695652173913</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>2.3695652173913</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>2.3695652173913</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>2.3695652173913</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>2.3695652173913</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>2.3695652173913</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>2.3695652173913</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>2.3695652173913</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>2.3695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>2.3695652173913</v>
+        <v>-0.163265306122449</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>2.3695652173913</v>
+        <v>0.959183673469388</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>2.3695652173913</v>
+        <v>0.102040816326531</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>2.3695652173913</v>
+        <v>1.40816326530612</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2.3695652173913</v>
+        <v>0.693877551020408</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>2.3695652173913</v>
+        <v>0.204081632653061</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>2.3695652173913</v>
+        <v>2.85714285714286</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>2.3695652173913</v>
+        <v>0.326530612244898</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>2.3695652173913</v>
+        <v>0.204081632653061</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>2.3695652173913</v>
+        <v>0.816326530612245</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>2.3695652173913</v>
+        <v>1.08163265306122</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2.3695652173913</v>
+        <v>0.775510204081633</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>2.3695652173913</v>
+        <v>1.10204081632653</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>2.3695652173913</v>
+        <v>0.122448979591837</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>2.3695652173913</v>
+        <v>1.83673469387755</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>2.3695652173913</v>
+        <v>1.79591836734694</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>2.3695652173913</v>
+        <v>0.448979591836735</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>2.3695652173913</v>
+        <v>1.63265306122449</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>2.3695652173913</v>
+        <v>1.40816326530612</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2.3695652173913</v>
+        <v>0.897959183673469</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>2.3695652173913</v>
+        <v>0.836734693877551</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>2.3695652173913</v>
+        <v>1.16326530612245</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>2.3695652173913</v>
+        <v>0.510204081632653</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>2.3695652173913</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>2.3695652173913</v>
+        <v>0.479166666666667</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>2.3695652173913</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>2.3695652173913</v>
+        <v>1.27083333333333</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>2.3695652173913</v>
+        <v>2.58333333333333</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>2.3695652173913</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>2.3695652173913</v>
+        <v>1.02083333333333</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>2.3695652173913</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>2.3695652173913</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>2.3695652173913</v>
+        <v>-0.0833333333333333</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>2.3695652173913</v>
+        <v>2.20833333333333</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>2.3695652173913</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>2.3695652173913</v>
+        <v>0.979166666666667</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>2.3695652173913</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>2.3695652173913</v>
+        <v>0.604166666666667</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>2.3695652173913</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>2.3695652173913</v>
+        <v>1.04166666666667</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>2.3695652173913</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>2.3695652173913</v>
+        <v>1.52083333333333</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>2.3695652173913</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>2.3695652173913</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>2.3695652173913</v>
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>2.3695652173913</v>
+        <v>1.82978723404255</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>2.3695652173913</v>
+        <v>0.48936170212766</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>2.3695652173913</v>
+        <v>2.06382978723404</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>2.3695652173913</v>
+        <v>0.765957446808511</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>2.3695652173913</v>
+        <v>0.361702127659574</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>2.3695652173913</v>
+        <v>0.936170212765957</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>2.3695652173913</v>
+        <v>0.553191489361702</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>2.3695652173913</v>
+        <v>1.85106382978723</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>2.3695652173913</v>
+        <v>0.808510638297872</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>2.3695652173913</v>
+        <v>0.51063829787234</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>2.3695652173913</v>
+        <v>0.382978723404255</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>2.3695652173913</v>
+        <v>0.531914893617021</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>2.3695652173913</v>
+        <v>0.51063829787234</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>2.3695652173913</v>
+        <v>0.553191489361702</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>2.3695652173913</v>
+        <v>0.531914893617021</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>2.3695652173913</v>
+        <v>1.78723404255319</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>2.3695652173913</v>
+        <v>1.70212765957447</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>2.3695652173913</v>
+        <v>1.63829787234043</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>2.3695652173913</v>
+        <v>0.170212765957447</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>2.3695652173913</v>
+        <v>1.78723404255319</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>2.3695652173913</v>
+        <v>1.61702127659574</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>2.3695652173913</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>2.3695652173913</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>2.3695652173913</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>2.3695652173913</v>
+        <v>0.130434782608696</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>2.3695652173913</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>2.3695652173913</v>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>2.3695652173913</v>
+        <v>1.45652173913044</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>2.3695652173913</v>
+        <v>1.04347826086957</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>2.3695652173913</v>
+        <v>1.1304347826087</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>2.3695652173913</v>
+        <v>2.60869565217391</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>2.3695652173913</v>
+        <v>1.91304347826087</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>2.3695652173913</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>2.3695652173913</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>2.3695652173913</v>
+        <v>0.847826086956522</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>2.3695652173913</v>
+        <v>0.565217391304348</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>2.3695652173913</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>2.3695652173913</v>
+        <v>1.8695652173913</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>2.3695652173913</v>
+        <v>1.47826086956522</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>2.3695652173913</v>
+        <v>1.15217391304348</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>2.3695652173913</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>2.3695652173913</v>
+        <v>-0.0217391304347826</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>2.3695652173913</v>
+        <v>0.369565217391304</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>2.3695652173913</v>
+        <v>1.23913043478261</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>2.3695652173913</v>
+        <v>1.26086956521739</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>2.3695652173913</v>
+        <v>0.155555555555556</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>2.3695652173913</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>2.3695652173913</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>2.3695652173913</v>
+        <v>0.422222222222222</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>2.3695652173913</v>
+        <v>-0.222222222222222</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>2.3695652173913</v>
+        <v>0.244444444444444</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>2.3695652173913</v>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>2.3695652173913</v>
+        <v>0.0444444444444444</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>2.3695652173913</v>
+        <v>0.288888888888889</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>2.3695652173913</v>
+        <v>1.84444444444444</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>2.3695652173913</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>2.3695652173913</v>
+        <v>0.288888888888889</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>2.3695652173913</v>
+        <v>0.644444444444444</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>2.3695652173913</v>
+        <v>0.466666666666667</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>2.3695652173913</v>
+        <v>0.0444444444444444</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>2.3695652173913</v>
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>2.3695652173913</v>
+        <v>0.955555555555555</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>2.3695652173913</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>2.3695652173913</v>
+        <v>0.488888888888889</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>2.3695652173913</v>
+        <v>0.755555555555556</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>2.3695652173913</v>
+        <v>0.488888888888889</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>2.3695652173913</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>2.3695652173913</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>2.3695652173913</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>2.3695652173913</v>
+        <v>0.377777777777778</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>2.3695652173913</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>2.3695652173913</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>2.3695652173913</v>
+        <v>0.577777777777778</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>2.3695652173913</v>
+        <v>0.244444444444444</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>2.3695652173913</v>
+        <v>0.955555555555555</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>2.3695652173913</v>
+        <v>0.244444444444444</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>2.3695652173913</v>
+        <v>-0.0444444444444444</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>2.3695652173913</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>2.3695652173913</v>
+        <v>1.11111111111111</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>2.3695652173913</v>
+        <v>0.288888888888889</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>2.3695652173913</v>
+        <v>0.955555555555555</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>2.3695652173913</v>
+        <v>0.711111111111111</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>2.3695652173913</v>
+        <v>1.37777777777778</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>2.3695652173913</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>2.3695652173913</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>2.3695652173913</v>
+        <v>0.355555555555556</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>2.3695652173913</v>
+        <v>1.88888888888889</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>2.3695652173913</v>
+        <v>0.822222222222222</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>2.3695652173913</v>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>2.3695652173913</v>
+        <v>0.466666666666667</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>2.3695652173913</v>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>2.3695652173913</v>
+        <v>1.51111111111111</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>2.3695652173913</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>2.3695652173913</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>2.3695652173913</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>2.3695652173913</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>2.3695652173913</v>
+        <v>0.155555555555556</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>2.3695652173913</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>2.3695652173913</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>2.3695652173913</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>2.3695652173913</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>2.3695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>2.3695652173913</v>
+        <v>1.31111111111111</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>2.3695652173913</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>2.3695652173913</v>
+        <v>0.466666666666667</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>2.3695652173913</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>2.3695652173913</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>2.3695652173913</v>
+        <v>1.15555555555556</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>2.3695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>2.3695652173913</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>2.3695652173913</v>
+        <v>1.64444444444444</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>2.3695652173913</v>
+        <v>2.17777777777778</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>2.3695652173913</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>2.3695652173913</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>2.3695652173913</v>
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>2.3695652173913</v>
+        <v>0.244444444444444</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>2.3695652173913</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>2.3695652173913</v>
+        <v>1.37777777777778</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>2.3695652173913</v>
+        <v>0.0444444444444444</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>2.3695652173913</v>
+        <v>0.288888888888889</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>2.3695652173913</v>
+        <v>1.37777777777778</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>2.3695652173913</v>
+        <v>0.377777777777778</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>2.3695652173913</v>
+        <v>1.17777777777778</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>2.3695652173913</v>
+        <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>2.3695652173913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>2.3695652173913</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>2.3695652173913</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>2.3695652173913</v>
+        <v>2.45454545454546</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>2.3695652173913</v>
+        <v>2.22727272727273</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>2.3695652173913</v>
+        <v>0.977272727272727</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>2.3695652173913</v>
+        <v>1.97727272727273</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>2.3695652173913</v>
+        <v>1.59090909090909</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>2.3695652173913</v>
+        <v>1.63636363636364</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>2.3695652173913</v>
+        <v>1.40909090909091</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>2.3695652173913</v>
+        <v>1.13636363636364</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>2.3695652173913</v>
+        <v>1.46341463414634</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>2.3695652173913</v>
+        <v>1.70731707317073</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>2.3695652173913</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>2.3695652173913</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474">
-        <v>2.3695652173913</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475">
-        <v>2.3695652173913</v>
+        <v>1.575</v>
       </c>
     </row>
   </sheetData>

--- a/DFStatsTest.xlsx
+++ b/DFStatsTest.xlsx
@@ -340,2374 +340,2374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A473"/>
+  <dimension ref="D1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="4:4">
+      <c r="D1">
         <v>2.3695652173913</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="4:4">
+      <c r="D2">
         <v>2.16483516483516</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="4:4">
+      <c r="D3">
         <v>2.83333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="4:4">
+      <c r="D4">
         <v>1.71111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="4:4">
+      <c r="D5">
         <v>2.15730337078652</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="4:4">
+      <c r="D6">
         <v>2.12359550561798</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="4:4">
+      <c r="D7">
         <v>1.64044943820225</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="4:4">
+      <c r="D8">
         <v>2.98850574712644</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="4:4">
+      <c r="D9">
         <v>1.51162790697674</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10" spans="4:4">
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11" spans="4:4">
+      <c r="D11">
         <v>1.54761904761905</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="12" spans="4:4">
+      <c r="D12">
         <v>2.04761904761905</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="13" spans="4:4">
+      <c r="D13">
         <v>0.879518072289157</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="14" spans="4:4">
+      <c r="D14">
         <v>1.78313253012048</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="15" spans="4:4">
+      <c r="D15">
         <v>2.46341463414634</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+    <row r="16" spans="4:4">
+      <c r="D16">
         <v>2.18292682926829</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="17" spans="4:4">
+      <c r="D17">
         <v>2.7037037037037</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="4:4">
+      <c r="D18">
         <v>2.03703703703704</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="4:4">
+      <c r="D19">
         <v>2.11111111111111</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="4:4">
+      <c r="D20">
         <v>2.07407407407407</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="4:4">
+      <c r="D21">
         <v>2.575</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="4:4">
+      <c r="D22">
         <v>2.275</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="4:4">
+      <c r="D23">
         <v>2.53846153846154</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="4:4">
+      <c r="D24">
         <v>2.29487179487179</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="4:4">
+      <c r="D25">
         <v>2.43589743589744</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="4:4">
+      <c r="D26">
         <v>2.20779220779221</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27" spans="4:4">
+      <c r="D27">
         <v>1.94805194805195</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28" spans="4:4">
+      <c r="D28">
         <v>1.48051948051948</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="29" spans="4:4">
+      <c r="D29">
         <v>1.96052631578947</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="30" spans="4:4">
+      <c r="D30">
         <v>1.86842105263158</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="31" spans="4:4">
+      <c r="D31">
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="32" spans="4:4">
+      <c r="D32">
         <v>2.21333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="33" spans="4:4">
+      <c r="D33">
         <v>2.22972972972973</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="34" spans="4:4">
+      <c r="D34">
         <v>1.56756756756757</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="35" spans="4:4">
+      <c r="D35">
         <v>1.72602739726027</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="36" spans="4:4">
+      <c r="D36">
         <v>2.15277777777778</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="37" spans="4:4">
+      <c r="D37">
         <v>2.54929577464789</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="38" spans="4:4">
+      <c r="D38">
         <v>1.91549295774648</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="39" spans="4:4">
+      <c r="D39">
         <v>1.54929577464789</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="40" spans="4:4">
+      <c r="D40">
         <v>1.7887323943662</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="41" spans="4:4">
+      <c r="D41">
         <v>2.28571428571429</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="42" spans="4:4">
+      <c r="D42">
         <v>1.82857142857143</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="43" spans="4:4">
+      <c r="D43">
         <v>2.12857142857143</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="44" spans="4:4">
+      <c r="D44">
         <v>1.56521739130435</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="45" spans="4:4">
+      <c r="D45">
         <v>1.89855072463768</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+    <row r="46" spans="4:4">
+      <c r="D46">
         <v>4.27536231884058</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="47" spans="4:4">
+      <c r="D47">
         <v>2.6231884057971</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="48" spans="4:4">
+      <c r="D48">
         <v>2.63768115942029</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="49" spans="4:4">
+      <c r="D49">
         <v>2.52173913043478</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="50" spans="4:4">
+      <c r="D50">
         <v>2.14705882352941</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="51" spans="4:4">
+      <c r="D51">
         <v>1.95588235294118</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+    <row r="52" spans="4:4">
+      <c r="D52">
         <v>2.35294117647059</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="53" spans="4:4">
+      <c r="D53">
         <v>1.60294117647059</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+    <row r="54" spans="4:4">
+      <c r="D54">
         <v>1.41791044776119</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="55" spans="4:4">
+      <c r="D55">
         <v>2.22388059701493</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="56" spans="4:4">
+      <c r="D56">
         <v>1.92537313432836</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="57" spans="4:4">
+      <c r="D57">
         <v>1.28358208955224</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="58" spans="4:4">
+      <c r="D58">
         <v>1.43283582089552</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="59" spans="4:4">
+      <c r="D59">
         <v>1.35820895522388</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="60" spans="4:4">
+      <c r="D60">
         <v>1.77272727272727</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="61" spans="4:4">
+      <c r="D61">
         <v>1.53030303030303</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="62" spans="4:4">
+      <c r="D62">
         <v>2.43939393939394</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="63" spans="4:4">
+      <c r="D63">
         <v>1.89230769230769</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="64" spans="4:4">
+      <c r="D64">
         <v>1.90769230769231</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="65" spans="4:4">
+      <c r="D65">
         <v>1.55384615384615</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="66" spans="4:4">
+      <c r="D66">
         <v>1.67692307692308</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="67" spans="4:4">
+      <c r="D67">
         <v>0.969230769230769</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="68" spans="4:4">
+      <c r="D68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="69" spans="4:4">
+      <c r="D69">
         <v>2.4</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="70" spans="4:4">
+      <c r="D70">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="71" spans="4:4">
+      <c r="D71">
         <v>2.109375</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+    <row r="72" spans="4:4">
+      <c r="D72">
         <v>2.0625</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="73" spans="4:4">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74">
         <v>1.921875</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="75" spans="4:4">
+      <c r="D75">
         <v>1.20634920634921</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="76" spans="4:4">
+      <c r="D76">
         <v>1.44444444444444</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="77" spans="4:4">
+      <c r="D77">
         <v>2.0952380952381</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="78" spans="4:4">
+      <c r="D78">
         <v>2.20967741935484</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="79" spans="4:4">
+      <c r="D79">
         <v>2.59016393442623</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="80" spans="4:4">
+      <c r="D80">
         <v>2.73770491803279</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+    <row r="81" spans="4:4">
+      <c r="D81">
         <v>1.73770491803279</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
+    <row r="82" spans="4:4">
+      <c r="D82">
         <v>1.9</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
+    <row r="83" spans="4:4">
+      <c r="D83">
         <v>1.55</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
+    <row r="84" spans="4:4">
+      <c r="D84">
         <v>2.43333333333333</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
+    <row r="85" spans="4:4">
+      <c r="D85">
         <v>2.06666666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
+    <row r="86" spans="4:4">
+      <c r="D86">
         <v>1.16666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
+    <row r="87" spans="4:4">
+      <c r="D87">
         <v>2.38983050847458</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
+    <row r="88" spans="4:4">
+      <c r="D88">
         <v>0.254237288135593</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
+    <row r="89" spans="4:4">
+      <c r="D89">
         <v>0.203389830508475</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
+    <row r="90" spans="4:4">
+      <c r="D90">
         <v>1.74576271186441</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
+    <row r="91" spans="4:4">
+      <c r="D91">
         <v>1.40677966101695</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
+    <row r="92" spans="4:4">
+      <c r="D92">
         <v>2.1551724137931</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
+    <row r="93" spans="4:4">
+      <c r="D93">
         <v>1.1551724137931</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
+    <row r="94" spans="4:4">
+      <c r="D94">
         <v>0.327586206896552</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
+    <row r="95" spans="4:4">
+      <c r="D95">
         <v>3.43103448275862</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
+    <row r="96" spans="4:4">
+      <c r="D96">
         <v>2.43103448275862</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
+    <row r="97" spans="4:4">
+      <c r="D97">
         <v>1.47368421052632</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
+    <row r="98" spans="4:4">
+      <c r="D98">
         <v>1.33333333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
+    <row r="99" spans="4:4">
+      <c r="D99">
         <v>1.78947368421053</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
+    <row r="100" spans="4:4">
+      <c r="D100">
         <v>1.82456140350877</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
+    <row r="101" spans="4:4">
+      <c r="D101">
         <v>1.52631578947368</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
+    <row r="102" spans="4:4">
+      <c r="D102">
         <v>0.684210526315789</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
+    <row r="103" spans="4:4">
+      <c r="D103">
         <v>-0.0350877192982456</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
+    <row r="104" spans="4:4">
+      <c r="D104">
         <v>1.85964912280702</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
+    <row r="105" spans="4:4">
+      <c r="D105">
         <v>1.82456140350877</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
+    <row r="106" spans="4:4">
+      <c r="D106">
         <v>1.07017543859649</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
+    <row r="107" spans="4:4">
+      <c r="D107">
         <v>1.85714285714286</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
+    <row r="108" spans="4:4">
+      <c r="D108">
         <v>1.85714285714286</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
+    <row r="109" spans="4:4">
+      <c r="D109">
         <v>1.42857142857143</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
+    <row r="110" spans="4:4">
+      <c r="D110">
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
+    <row r="111" spans="4:4">
+      <c r="D111">
         <v>0.0535714285714286</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
+    <row r="112" spans="4:4">
+      <c r="D112">
         <v>1.35714285714286</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
+    <row r="113" spans="4:4">
+      <c r="D113">
         <v>1.5</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
+    <row r="114" spans="4:4">
+      <c r="D114">
         <v>1.57142857142857</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
+    <row r="115" spans="4:4">
+      <c r="D115">
         <v>1.03571428571429</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
+    <row r="116" spans="4:4">
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117">
         <v>0.763636363636364</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
+    <row r="118" spans="4:4">
+      <c r="D118">
         <v>0.0909090909090909</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
+    <row r="119" spans="4:4">
+      <c r="D119">
         <v>1.21818181818182</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
+    <row r="120" spans="4:4">
+      <c r="D120">
         <v>1.36363636363636</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
+    <row r="121" spans="4:4">
+      <c r="D121">
         <v>0.890909090909091</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
+    <row r="122" spans="4:4">
+      <c r="D122">
         <v>1.89090909090909</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
+    <row r="123" spans="4:4">
+      <c r="D123">
         <v>1.94545454545455</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
+    <row r="124" spans="4:4">
+      <c r="D124">
         <v>0.481481481481482</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
+    <row r="125" spans="4:4">
+      <c r="D125">
         <v>1.75925925925926</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
+    <row r="126" spans="4:4">
+      <c r="D126">
         <v>1.57407407407407</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
+    <row r="127" spans="4:4">
+      <c r="D127">
         <v>2.16666666666667</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
+    <row r="128" spans="4:4">
+      <c r="D128">
         <v>1.74074074074074</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
+    <row r="129" spans="4:4">
+      <c r="D129">
         <v>0.518518518518518</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
+    <row r="130" spans="4:4">
+      <c r="D130">
         <v>2.03703703703704</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
+    <row r="131" spans="4:4">
+      <c r="D131">
         <v>0.259259259259259</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
+    <row r="132" spans="4:4">
+      <c r="D132">
         <v>1.2962962962963</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
+    <row r="133" spans="4:4">
+      <c r="D133">
         <v>1.03703703703704</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
+    <row r="134" spans="4:4">
+      <c r="D134">
         <v>0.648148148148148</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
+    <row r="135" spans="4:4">
+      <c r="D135">
         <v>1.38888888888889</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
+    <row r="136" spans="4:4">
+      <c r="D136">
         <v>0.0555555555555556</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
+    <row r="137" spans="4:4">
+      <c r="D137">
         <v>1.37037037037037</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
+    <row r="138" spans="4:4">
+      <c r="D138">
         <v>1.31481481481481</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
+    <row r="139" spans="4:4">
+      <c r="D139">
         <v>1.77358490566038</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
+    <row r="140" spans="4:4">
+      <c r="D140">
         <v>0.39622641509434</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
+    <row r="141" spans="4:4">
+      <c r="D141">
         <v>0.39622641509434</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
+    <row r="142" spans="4:4">
+      <c r="D142">
         <v>0.943396226415094</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
+    <row r="143" spans="4:4">
+      <c r="D143">
         <v>0.415094339622642</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
+    <row r="144" spans="4:4">
+      <c r="D144">
         <v>1.22641509433962</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
+    <row r="145" spans="4:4">
+      <c r="D145">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
+    <row r="146" spans="4:4">
+      <c r="D146">
         <v>0.0566037735849057</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
+    <row r="147" spans="4:4">
+      <c r="D147">
         <v>0.924528301886793</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
+    <row r="148" spans="4:4">
+      <c r="D148">
         <v>1.47169811320755</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
+    <row r="149" spans="4:4">
+      <c r="D149">
         <v>1.54716981132075</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
+    <row r="150" spans="4:4">
+      <c r="D150">
         <v>0.0188679245283019</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151">
+    <row r="151" spans="4:4">
+      <c r="D151">
         <v>1.18867924528302</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152">
+    <row r="152" spans="4:4">
+      <c r="D152">
         <v>1.43396226415094</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153">
+    <row r="153" spans="4:4">
+      <c r="D153">
         <v>1.07692307692308</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154">
+    <row r="154" spans="4:4">
+      <c r="D154">
         <v>1.15384615384615</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
+    <row r="155" spans="4:4">
+      <c r="D155">
         <v>1.28846153846154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156">
+    <row r="156" spans="4:4">
+      <c r="D156">
         <v>1.13461538461538</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158">
+    <row r="157" spans="4:4">
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158">
         <v>0.730769230769231</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159">
+    <row r="159" spans="4:4">
+      <c r="D159">
         <v>1.61538461538462</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160">
+    <row r="160" spans="4:4">
+      <c r="D160">
         <v>1.30769230769231</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162">
+    <row r="161" spans="4:4">
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162">
         <v>0.807692307692308</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163">
+    <row r="163" spans="4:4">
+      <c r="D163">
         <v>1.98076923076923</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164">
+    <row r="164" spans="4:4">
+      <c r="D164">
         <v>2.82692307692308</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165">
+    <row r="165" spans="4:4">
+      <c r="D165">
         <v>1.17307692307692</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166">
+    <row r="166" spans="4:4">
+      <c r="D166">
         <v>1.36538461538462</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167">
+    <row r="167" spans="4:4">
+      <c r="D167">
         <v>1.25</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168">
+    <row r="168" spans="4:4">
+      <c r="D168">
         <v>0.942307692307692</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169">
+    <row r="169" spans="4:4">
+      <c r="D169">
         <v>-0.0192307692307692</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170">
+    <row r="170" spans="4:4">
+      <c r="D170">
         <v>1.86538461538462</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171">
+    <row r="171" spans="4:4">
+      <c r="D171">
         <v>0.549019607843137</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172">
+    <row r="172" spans="4:4">
+      <c r="D172">
         <v>1.11764705882353</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175">
+    <row r="173" spans="4:4">
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175">
         <v>1.84313725490196</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176">
+    <row r="176" spans="4:4">
+      <c r="D176">
         <v>1.13725490196078</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177">
+    <row r="177" spans="4:4">
+      <c r="D177">
         <v>0.92156862745098</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178">
+    <row r="178" spans="4:4">
+      <c r="D178">
         <v>3.11764705882353</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179">
+    <row r="179" spans="4:4">
+      <c r="D179">
         <v>0.529411764705882</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180">
+    <row r="180" spans="4:4">
+      <c r="D180">
         <v>2.19607843137255</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181">
+    <row r="181" spans="4:4">
+      <c r="D181">
         <v>0.764705882352941</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182">
+    <row r="182" spans="4:4">
+      <c r="D182">
         <v>2.58823529411765</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183">
+    <row r="183" spans="4:4">
+      <c r="D183">
         <v>2.11764705882353</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184">
+    <row r="184" spans="4:4">
+      <c r="D184">
         <v>1.27450980392157</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185">
+    <row r="185" spans="4:4">
+      <c r="D185">
         <v>0.941176470588235</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186">
+    <row r="186" spans="4:4">
+      <c r="D186">
         <v>2.15686274509804</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187">
+    <row r="187" spans="4:4">
+      <c r="D187">
         <v>0.313725490196078</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188">
+    <row r="188" spans="4:4">
+      <c r="D188">
         <v>0.78</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189">
+    <row r="189" spans="4:4">
+      <c r="D189">
         <v>0.5</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190">
+    <row r="190" spans="4:4">
+      <c r="D190">
         <v>1.26</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191">
+    <row r="191" spans="4:4">
+      <c r="D191">
         <v>1.84</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192">
+    <row r="192" spans="4:4">
+      <c r="D192">
         <v>0.28</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193">
+    <row r="193" spans="4:4">
+      <c r="D193">
         <v>1.02</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194">
+    <row r="194" spans="4:4">
+      <c r="D194">
         <v>1.94</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195">
+    <row r="195" spans="4:4">
+      <c r="D195">
         <v>0.98</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196">
+    <row r="196" spans="4:4">
+      <c r="D196">
         <v>0.28</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197">
+    <row r="197" spans="4:4">
+      <c r="D197">
         <v>1.48</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198">
+    <row r="198" spans="4:4">
+      <c r="D198">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199">
+    <row r="199" spans="4:4">
+      <c r="D199">
         <v>0.6</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200">
+    <row r="200" spans="4:4">
+      <c r="D200">
         <v>1.3</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202">
+    <row r="201" spans="4:4">
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202">
         <v>0.28</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203">
+    <row r="203" spans="4:4">
+      <c r="D203">
         <v>0.58</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205">
+    <row r="204" spans="4:4">
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205">
         <v>1.06</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206">
+    <row r="206" spans="4:4">
+      <c r="D206">
         <v>0.86</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207">
+    <row r="207" spans="4:4">
+      <c r="D207">
         <v>1.82</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208">
+    <row r="208" spans="4:4">
+      <c r="D208">
         <v>0.92</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209">
+    <row r="209" spans="4:4">
+      <c r="D209">
         <v>0.94</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210">
+    <row r="210" spans="4:4">
+      <c r="D210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211">
+    <row r="211" spans="4:4">
+      <c r="D211">
         <v>-0.163265306122449</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212">
+    <row r="212" spans="4:4">
+      <c r="D212">
         <v>0.959183673469388</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213">
+    <row r="213" spans="4:4">
+      <c r="D213">
         <v>0.102040816326531</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214">
+    <row r="214" spans="4:4">
+      <c r="D214">
         <v>1.40816326530612</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215">
+    <row r="215" spans="4:4">
+      <c r="D215">
         <v>0.693877551020408</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217">
+    <row r="216" spans="4:4">
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217">
         <v>0.204081632653061</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218">
+    <row r="218" spans="4:4">
+      <c r="D218">
         <v>2.85714285714286</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219">
+    <row r="219" spans="4:4">
+      <c r="D219">
         <v>0.326530612244898</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221">
+    <row r="220" spans="4:4">
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221">
         <v>0.204081632653061</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222">
+    <row r="222" spans="4:4">
+      <c r="D222">
         <v>0.816326530612245</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223">
+    <row r="223" spans="4:4">
+      <c r="D223">
         <v>1.08163265306122</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225">
+    <row r="224" spans="4:4">
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225">
         <v>0.775510204081633</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226">
+    <row r="226" spans="4:4">
+      <c r="D226">
         <v>1.10204081632653</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227">
+    <row r="227" spans="4:4">
+      <c r="D227">
         <v>0.122448979591837</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228">
+    <row r="228" spans="4:4">
+      <c r="D228">
         <v>1.83673469387755</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229">
+    <row r="229" spans="4:4">
+      <c r="D229">
         <v>1.79591836734694</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230">
+    <row r="230" spans="4:4">
+      <c r="D230">
         <v>0.448979591836735</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231">
+    <row r="231" spans="4:4">
+      <c r="D231">
         <v>1.63265306122449</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232">
+    <row r="232" spans="4:4">
+      <c r="D232">
         <v>1.40816326530612</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233">
+    <row r="233" spans="4:4">
+      <c r="D233">
         <v>0.897959183673469</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234">
+    <row r="234" spans="4:4">
+      <c r="D234">
         <v>0.836734693877551</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235">
+    <row r="235" spans="4:4">
+      <c r="D235">
         <v>1.16326530612245</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236">
+    <row r="236" spans="4:4">
+      <c r="D236">
         <v>0.510204081632653</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237">
+    <row r="237" spans="4:4">
+      <c r="D237">
         <v>0.166666666666667</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238">
+    <row r="238" spans="4:4">
+      <c r="D238">
         <v>0.479166666666667</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239">
+    <row r="239" spans="4:4">
+      <c r="D239">
         <v>0.75</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243">
+    <row r="240" spans="4:4">
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243">
         <v>1.27083333333333</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244">
+    <row r="244" spans="4:4">
+      <c r="D244">
         <v>2.58333333333333</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245">
+    <row r="245" spans="4:4">
+      <c r="D245">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247">
+    <row r="246" spans="4:4">
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247">
         <v>1.02083333333333</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248">
+    <row r="248" spans="4:4">
+      <c r="D248">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249">
+    <row r="249" spans="4:4">
+      <c r="D249">
         <v>0.6875</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250">
+    <row r="250" spans="4:4">
+      <c r="D250">
         <v>-0.0833333333333333</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251">
+    <row r="251" spans="4:4">
+      <c r="D251">
         <v>2.20833333333333</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252">
+    <row r="252" spans="4:4">
+      <c r="D252">
         <v>2.75</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253">
+    <row r="253" spans="4:4">
+      <c r="D253">
         <v>0.979166666666667</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254">
+    <row r="254" spans="4:4">
+      <c r="D254">
         <v>1.75</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255">
+    <row r="255" spans="4:4">
+      <c r="D255">
         <v>0.604166666666667</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257">
+    <row r="256" spans="4:4">
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257">
         <v>2.08333333333333</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258">
+    <row r="258" spans="4:4">
+      <c r="D258">
         <v>1.04166666666667</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260">
+    <row r="259" spans="4:4">
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260">
         <v>0.916666666666667</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261">
+    <row r="261" spans="4:4">
+      <c r="D261">
         <v>1.52083333333333</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263">
+    <row r="262" spans="4:4">
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263">
         <v>0.75</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264">
+    <row r="264" spans="4:4">
+      <c r="D264">
         <v>1.875</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266">
+    <row r="265" spans="4:4">
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266">
         <v>0.583333333333333</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267">
+    <row r="267" spans="4:4">
+      <c r="D267">
         <v>1.82978723404255</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269">
+    <row r="268" spans="4:4">
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269">
         <v>0.48936170212766</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270">
+    <row r="270" spans="4:4">
+      <c r="D270">
         <v>2.06382978723404</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271">
+    <row r="271" spans="4:4">
+      <c r="D271">
         <v>0.765957446808511</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272">
+    <row r="272" spans="4:4">
+      <c r="D272">
         <v>0.361702127659574</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273">
+    <row r="273" spans="4:4">
+      <c r="D273">
         <v>0.936170212765957</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274">
+    <row r="274" spans="4:4">
+      <c r="D274">
         <v>0.553191489361702</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275">
+    <row r="275" spans="4:4">
+      <c r="D275">
         <v>1.85106382978723</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276">
+    <row r="276" spans="4:4">
+      <c r="D276">
         <v>0.808510638297872</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277">
+    <row r="277" spans="4:4">
+      <c r="D277">
         <v>0.51063829787234</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278">
+    <row r="278" spans="4:4">
+      <c r="D278">
         <v>0.382978723404255</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279">
+    <row r="279" spans="4:4">
+      <c r="D279">
         <v>0.531914893617021</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280">
+    <row r="280" spans="4:4">
+      <c r="D280">
         <v>0.51063829787234</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281">
+    <row r="281" spans="4:4">
+      <c r="D281">
         <v>0.553191489361702</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282">
+    <row r="282" spans="4:4">
+      <c r="D282">
         <v>0.531914893617021</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283">
+    <row r="283" spans="4:4">
+      <c r="D283">
         <v>1.78723404255319</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284">
+    <row r="284" spans="4:4">
+      <c r="D284">
         <v>1.70212765957447</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285">
+    <row r="285" spans="4:4">
+      <c r="D285">
         <v>1.63829787234043</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286">
+    <row r="286" spans="4:4">
+      <c r="D286">
         <v>0.170212765957447</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287">
+    <row r="287" spans="4:4">
+      <c r="D287">
         <v>1.78723404255319</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288">
+    <row r="288" spans="4:4">
+      <c r="D288">
         <v>1.61702127659574</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289">
+    <row r="289" spans="4:4">
+      <c r="D289">
         <v>0.723404255319149</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290">
+    <row r="290" spans="4:4">
+      <c r="D290">
         <v>0.0425531914893617</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291">
+    <row r="291" spans="4:4">
+      <c r="D291">
         <v>0.574468085106383</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292">
+    <row r="292" spans="4:4">
+      <c r="D292">
         <v>0.130434782608696</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293">
+    <row r="293" spans="4:4">
+      <c r="D293">
         <v>0.608695652173913</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294">
+    <row r="294" spans="4:4">
+      <c r="D294">
         <v>0.782608695652174</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295">
+    <row r="295" spans="4:4">
+      <c r="D295">
         <v>1.45652173913044</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297">
+    <row r="296" spans="4:4">
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4">
+      <c r="D297">
         <v>1.04347826086957</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298">
+    <row r="298" spans="4:4">
+      <c r="D298">
         <v>1.1304347826087</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299">
+    <row r="299" spans="4:4">
+      <c r="D299">
         <v>2.60869565217391</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300">
+    <row r="300" spans="4:4">
+      <c r="D300">
         <v>1.91304347826087</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301">
+    <row r="301" spans="4:4">
+      <c r="D301">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
-      <c r="A302">
+    <row r="302" spans="4:4">
+      <c r="D302">
         <v>0.760869565217391</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304">
+    <row r="303" spans="4:4">
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4">
+      <c r="D304">
         <v>0.847826086956522</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305">
+    <row r="305" spans="4:4">
+      <c r="D305">
         <v>0.565217391304348</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306">
+    <row r="306" spans="4:4">
+      <c r="D306">
         <v>0.108695652173913</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308">
+    <row r="307" spans="4:4">
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4">
+      <c r="D308">
         <v>1.8695652173913</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309">
+    <row r="309" spans="4:4">
+      <c r="D309">
         <v>1.47826086956522</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310">
+    <row r="310" spans="4:4">
+      <c r="D310">
         <v>1.15217391304348</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311">
+    <row r="311" spans="4:4">
+      <c r="D311">
         <v>0.391304347826087</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312">
+    <row r="312" spans="4:4">
+      <c r="D312">
         <v>-0.0217391304347826</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313">
+    <row r="313" spans="4:4">
+      <c r="D313">
         <v>0.369565217391304</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314">
+    <row r="314" spans="4:4">
+      <c r="D314">
         <v>1.23913043478261</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
-      <c r="A315">
+    <row r="315" spans="4:4">
+      <c r="D315">
         <v>1.26086956521739</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318">
+    <row r="316" spans="4:4">
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4">
+      <c r="D317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4">
+      <c r="D318">
         <v>0.155555555555556</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319">
+    <row r="319" spans="4:4">
+      <c r="D319">
         <v>0.6</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320">
+    <row r="320" spans="4:4">
+      <c r="D320">
         <v>0.111111111111111</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321">
+    <row r="321" spans="4:4">
+      <c r="D321">
         <v>0.422222222222222</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322">
+    <row r="322" spans="4:4">
+      <c r="D322">
         <v>-0.222222222222222</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323">
+    <row r="323" spans="4:4">
+      <c r="D323">
         <v>0.244444444444444</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324">
+    <row r="324" spans="4:4">
+      <c r="D324">
         <v>0.222222222222222</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327">
+    <row r="325" spans="4:4">
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4">
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4">
+      <c r="D327">
         <v>0.0444444444444444</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328">
+    <row r="328" spans="4:4">
+      <c r="D328">
         <v>0.288888888888889</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337">
+    <row r="329" spans="4:4">
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4">
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4">
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4">
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4">
+      <c r="D333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4">
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4">
+      <c r="D335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4">
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4">
+      <c r="D337">
         <v>1.84444444444444</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338">
+    <row r="338" spans="4:4">
+      <c r="D338">
         <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339">
+    <row r="339" spans="4:4">
+      <c r="D339">
         <v>0.288888888888889</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
-      <c r="A340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342">
+    <row r="340" spans="4:4">
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4">
+      <c r="D341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4">
+      <c r="D342">
         <v>0.644444444444444</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344">
+    <row r="343" spans="4:4">
+      <c r="D343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4">
+      <c r="D344">
         <v>0.466666666666667</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345">
+    <row r="345" spans="4:4">
+      <c r="D345">
         <v>0.0444444444444444</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346">
+    <row r="346" spans="4:4">
+      <c r="D346">
         <v>0.555555555555556</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348">
+    <row r="347" spans="4:4">
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4">
+      <c r="D348">
         <v>0.955555555555555</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
-      <c r="A349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353">
+    <row r="349" spans="4:4">
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4">
+      <c r="D350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4">
+      <c r="D351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4">
+      <c r="D352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4">
+      <c r="D353">
         <v>0.0888888888888889</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354">
+    <row r="354" spans="4:4">
+      <c r="D354">
         <v>0.488888888888889</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355">
+    <row r="355" spans="4:4">
+      <c r="D355">
         <v>0.755555555555556</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356">
+    <row r="356" spans="4:4">
+      <c r="D356">
         <v>0.488888888888889</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357">
+    <row r="357" spans="4:4">
+      <c r="D357">
         <v>0.0888888888888889</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358">
+    <row r="358" spans="4:4">
+      <c r="D358">
         <v>0.0888888888888889</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359">
+    <row r="359" spans="4:4">
+      <c r="D359">
         <v>0.333333333333333</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361">
+    <row r="360" spans="4:4">
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4">
+      <c r="D361">
         <v>0.377777777777778</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362">
+    <row r="362" spans="4:4">
+      <c r="D362">
         <v>0.0888888888888889</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363">
+    <row r="363" spans="4:4">
+      <c r="D363">
         <v>0.0222222222222222</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365">
+    <row r="364" spans="4:4">
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4">
+      <c r="D365">
         <v>0.577777777777778</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373">
+    <row r="366" spans="4:4">
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4">
+      <c r="D367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4">
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4">
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4">
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4">
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4">
+      <c r="D372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4">
+      <c r="D373">
         <v>0.244444444444444</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380">
+    <row r="374" spans="4:4">
+      <c r="D374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4">
+      <c r="D375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4">
+      <c r="D376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4">
+      <c r="D377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4">
+      <c r="D378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4">
+      <c r="D379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4">
+      <c r="D380">
         <v>0.955555555555555</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382">
+    <row r="381" spans="4:4">
+      <c r="D381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4">
+      <c r="D382">
         <v>0.244444444444444</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383">
+    <row r="383" spans="4:4">
+      <c r="D383">
         <v>-0.0444444444444444</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385">
+    <row r="384" spans="4:4">
+      <c r="D384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4">
+      <c r="D385">
         <v>0.0666666666666667</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386">
+    <row r="386" spans="4:4">
+      <c r="D386">
         <v>1.11111111111111</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387">
+    <row r="387" spans="4:4">
+      <c r="D387">
         <v>0.288888888888889</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390">
+    <row r="388" spans="4:4">
+      <c r="D388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4">
+      <c r="D389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4">
+      <c r="D390">
         <v>0.955555555555555</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
-      <c r="A391">
+    <row r="391" spans="4:4">
+      <c r="D391">
         <v>0.711111111111111</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392">
+    <row r="392" spans="4:4">
+      <c r="D392">
         <v>1.37777777777778</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393">
+    <row r="393" spans="4:4">
+      <c r="D393">
         <v>0.444444444444444</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
-      <c r="A394">
+    <row r="394" spans="4:4">
+      <c r="D394">
         <v>0.4</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395">
+    <row r="395" spans="4:4">
+      <c r="D395">
         <v>0.355555555555556</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397">
+    <row r="396" spans="4:4">
+      <c r="D396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4">
+      <c r="D397">
         <v>1.88888888888889</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398">
+    <row r="398" spans="4:4">
+      <c r="D398">
         <v>0.822222222222222</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401">
+    <row r="399" spans="4:4">
+      <c r="D399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4">
+      <c r="D400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4">
+      <c r="D401">
         <v>0.222222222222222</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403">
+    <row r="402" spans="4:4">
+      <c r="D402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4">
+      <c r="D403">
         <v>0.466666666666667</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408">
+    <row r="404" spans="4:4">
+      <c r="D404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4">
+      <c r="D405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4">
+      <c r="D406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4">
+      <c r="D407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4">
+      <c r="D408">
         <v>0.222222222222222</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409">
+    <row r="409" spans="4:4">
+      <c r="D409">
         <v>1.51111111111111</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413">
+    <row r="410" spans="4:4">
+      <c r="D410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4">
+      <c r="D411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4">
+      <c r="D412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4">
+      <c r="D413">
         <v>0.111111111111111</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415">
+    <row r="414" spans="4:4">
+      <c r="D414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4">
+      <c r="D415">
         <v>0.0666666666666667</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416">
+    <row r="416" spans="4:4">
+      <c r="D416">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
-      <c r="A417">
+    <row r="417" spans="4:4">
+      <c r="D417">
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
-      <c r="A418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419">
+    <row r="418" spans="4:4">
+      <c r="D418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="4:4">
+      <c r="D419">
         <v>0.155555555555556</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420">
+    <row r="420" spans="4:4">
+      <c r="D420">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422">
+    <row r="421" spans="4:4">
+      <c r="D421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="4:4">
+      <c r="D422">
         <v>0.444444444444444</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
-      <c r="A423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424">
+    <row r="423" spans="4:4">
+      <c r="D423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="4:4">
+      <c r="D424">
         <v>0.4</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425">
+    <row r="425" spans="4:4">
+      <c r="D425">
         <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
-      <c r="A426">
+    <row r="426" spans="4:4">
+      <c r="D426">
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
-      <c r="A427">
+    <row r="427" spans="4:4">
+      <c r="D427">
         <v>1.31111111111111</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428">
+    <row r="428" spans="4:4">
+      <c r="D428">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431">
+    <row r="429" spans="4:4">
+      <c r="D429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="4:4">
+      <c r="D430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="4:4">
+      <c r="D431">
         <v>0.466666666666667</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433">
+    <row r="432" spans="4:4">
+      <c r="D432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4">
+      <c r="D433">
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
-      <c r="A434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435">
+    <row r="434" spans="4:4">
+      <c r="D434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="4:4">
+      <c r="D435">
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437">
+    <row r="436" spans="4:4">
+      <c r="D436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="4:4">
+      <c r="D437">
         <v>1.15555555555556</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
-      <c r="A438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440">
+    <row r="438" spans="4:4">
+      <c r="D438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4">
+      <c r="D439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4">
+      <c r="D440">
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
-      <c r="A441">
+    <row r="441" spans="4:4">
+      <c r="D441">
         <v>1.73333333333333</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
-      <c r="A442">
+    <row r="442" spans="4:4">
+      <c r="D442">
         <v>1.64444444444444</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443">
+    <row r="443" spans="4:4">
+      <c r="D443">
         <v>2.17777777777778</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444">
+    <row r="444" spans="4:4">
+      <c r="D444">
         <v>0.4</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445">
+    <row r="445" spans="4:4">
+      <c r="D445">
         <v>0.0888888888888889</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446">
+    <row r="446" spans="4:4">
+      <c r="D446">
         <v>0.555555555555556</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
-      <c r="A447">
+    <row r="447" spans="4:4">
+      <c r="D447">
         <v>0.244444444444444</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448">
+    <row r="448" spans="4:4">
+      <c r="D448">
         <v>0.0888888888888889</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
-      <c r="A449">
+    <row r="449" spans="4:4">
+      <c r="D449">
         <v>1.37777777777778</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452">
+    <row r="450" spans="4:4">
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4">
+      <c r="D451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4">
+      <c r="D452">
         <v>0.0444444444444444</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
-      <c r="A453">
+    <row r="453" spans="4:4">
+      <c r="D453">
         <v>0.288888888888889</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
-      <c r="A454">
+    <row r="454" spans="4:4">
+      <c r="D454">
         <v>1.37777777777778</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455">
+    <row r="455" spans="4:4">
+      <c r="D455">
         <v>0.377777777777778</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
-      <c r="A456">
+    <row r="456" spans="4:4">
+      <c r="D456">
         <v>1.17777777777778</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
-      <c r="A457">
+    <row r="457" spans="4:4">
+      <c r="D457">
         <v>0.0666666666666667</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460">
+    <row r="458" spans="4:4">
+      <c r="D458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="4:4">
+      <c r="D459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="4:4">
+      <c r="D460">
         <v>0.266666666666667</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
-      <c r="A461">
+    <row r="461" spans="4:4">
+      <c r="D461">
         <v>0.111111111111111</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462">
+    <row r="462" spans="4:4">
+      <c r="D462">
         <v>2.45454545454546</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
-      <c r="A463">
+    <row r="463" spans="4:4">
+      <c r="D463">
         <v>2.22727272727273</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
-      <c r="A464">
+    <row r="464" spans="4:4">
+      <c r="D464">
         <v>0.977272727272727</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
-      <c r="A465">
+    <row r="465" spans="4:4">
+      <c r="D465">
         <v>1.97727272727273</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
-      <c r="A466">
+    <row r="466" spans="4:4">
+      <c r="D466">
         <v>1.59090909090909</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
-      <c r="A467">
+    <row r="467" spans="4:4">
+      <c r="D467">
         <v>1.63636363636364</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
-      <c r="A468">
+    <row r="468" spans="4:4">
+      <c r="D468">
         <v>1.40909090909091</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
-      <c r="A469">
+    <row r="469" spans="4:4">
+      <c r="D469">
         <v>1.13636363636364</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470">
+    <row r="470" spans="4:4">
+      <c r="D470">
         <v>1.46341463414634</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
-      <c r="A471">
+    <row r="471" spans="4:4">
+      <c r="D471">
         <v>1.70731707317073</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
-      <c r="A472">
+    <row r="472" spans="4:4">
+      <c r="D472">
         <v>1.75</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
-      <c r="A473">
+    <row r="473" spans="4:4">
+      <c r="D473">
         <v>1.575</v>
       </c>
     </row>
